--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,154 +40,154 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>infected</t>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>lowest</t>
+    <t>hell</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>fear</t>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>worse</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>pressure</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>shortages</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>buying</t>
   </si>
   <si>
-    <t>due</t>
+    <t>co</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
+    <t>people</t>
   </si>
   <si>
     <t>19</t>
@@ -196,253 +196,247 @@
     <t>supermarket</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -800,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -808,10 +802,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -869,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -887,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -911,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -922,10 +916,10 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -937,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -961,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -969,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -987,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1011,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1019,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1037,31 +1031,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="L6">
+        <v>53</v>
+      </c>
+      <c r="M6">
+        <v>53</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>6</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="L6">
-        <v>17</v>
-      </c>
-      <c r="M6">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1069,13 +1063,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8253424657534246</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C7">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1087,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1119,13 +1113,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8157894736842105</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1137,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>0.8813559322033898</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1161,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1169,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7941176470588235</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1187,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1211,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1219,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7931034482758621</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1237,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1261,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1269,13 +1263,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7368421052631579</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1287,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.8611111111111112</v>
+        <v>0.8433420365535248</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1311,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1319,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7307692307692307</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1340,16 +1334,16 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.837696335078534</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1358,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1369,13 +1363,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7297297297297297</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1387,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.8359375</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L13">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1411,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1419,13 +1413,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.72</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1437,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.8301886792452831</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L14">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1461,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1490,16 +1484,16 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.8181818181818182</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1511,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1519,13 +1513,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.675</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1537,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1561,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1569,13 +1563,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1587,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.8048780487804879</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L17">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1611,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1619,13 +1613,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6274509803921569</v>
+        <v>0.68</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1637,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K18">
-        <v>0.8</v>
+        <v>0.7890625</v>
       </c>
       <c r="L18">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="M18">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1661,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1669,13 +1663,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6086956521739131</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1687,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>0.7931034482758621</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1711,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1719,13 +1713,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5925925925925926</v>
+        <v>0.65</v>
       </c>
       <c r="C20">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1737,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20">
-        <v>0.7906976744186046</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1761,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1769,13 +1763,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5897435897435898</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1787,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0.7887323943661971</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L21">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1811,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1819,13 +1813,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5806451612903226</v>
+        <v>0.625968992248062</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1837,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K22">
-        <v>0.7872340425531915</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1861,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1869,13 +1863,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5769230769230769</v>
+        <v>0.6</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1887,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1911,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1919,13 +1913,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5769230769230769</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1937,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K24">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1961,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1969,13 +1963,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.576271186440678</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1987,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2011,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2019,13 +2013,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5736434108527132</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C26">
-        <v>296</v>
+        <v>106</v>
       </c>
       <c r="D26">
-        <v>296</v>
+        <v>106</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2037,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K26">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2069,13 +2063,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5570469798657718</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C27">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2087,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27">
         <v>0.7142857142857143</v>
@@ -2119,13 +2113,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5384615384615384</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2137,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28">
-        <v>0.7083333333333334</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2161,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2169,13 +2163,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5185185185185185</v>
+        <v>0.5436241610738255</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2187,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K29">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2211,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2219,13 +2213,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5135135135135135</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2237,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>0.6984126984126984</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2261,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2269,38 +2263,38 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4838709677419355</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L31">
         <v>15</v>
       </c>
-      <c r="D31">
+      <c r="M31">
         <v>15</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>16</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="L31">
-        <v>24</v>
-      </c>
-      <c r="M31">
-        <v>24</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -2311,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2319,13 +2313,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4642857142857143</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2337,19 +2331,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>0.6842105263157895</v>
+        <v>0.65</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2361,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2369,13 +2363,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4516129032258064</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2387,19 +2381,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K33">
-        <v>0.6818181818181818</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2411,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2419,13 +2413,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4363636363636363</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2437,19 +2431,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K34">
-        <v>0.6666666666666666</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2461,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2469,13 +2463,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4266666666666667</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2487,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K35">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2511,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2519,7 +2513,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C36">
         <v>14</v>
@@ -2537,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K36">
-        <v>0.6529411764705882</v>
+        <v>0.625</v>
       </c>
       <c r="L36">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2561,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>118</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2569,13 +2563,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3636363636363636</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2587,31 +2581,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K37">
-        <v>0.6474576271186441</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L37">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M37">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2619,13 +2613,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3636363636363636</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2637,19 +2631,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K38">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2669,13 +2663,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2687,31 +2681,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K39">
-        <v>0.6386554621848739</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L39">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="N39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2719,13 +2713,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.325</v>
+        <v>0.4</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2737,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K40">
-        <v>0.6307692307692307</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2761,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2769,13 +2763,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3137254901960784</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2787,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>0.6170212765957447</v>
+        <v>0.6</v>
       </c>
       <c r="L41">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2811,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2819,13 +2813,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2976190476190476</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C42">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2837,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K42">
-        <v>0.6086956521739131</v>
+        <v>0.6</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2861,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2869,7 +2863,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2542372881355932</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C43">
         <v>15</v>
@@ -2887,19 +2881,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K43">
-        <v>0.6078431372549019</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2911,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2919,13 +2913,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2332439678284182</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="C44">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D44">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2937,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K44">
-        <v>0.6071428571428571</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2961,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2969,13 +2963,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2203389830508475</v>
+        <v>0.2625</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2987,19 +2981,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K45">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3011,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3019,13 +3013,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.175</v>
+        <v>0.2386058981233244</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3037,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K46">
-        <v>0.5777777777777777</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3061,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3069,13 +3063,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1533333333333333</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3087,19 +3081,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K47">
-        <v>0.5600000000000001</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3111,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3119,13 +3113,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1460674157303371</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3137,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K48">
-        <v>0.5393258426966292</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L48">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3161,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3169,13 +3163,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.07534246575342465</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>0.04</v>
@@ -3187,19 +3181,19 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K49">
-        <v>0.5357142857142857</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3211,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3219,37 +3213,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07234042553191489</v>
+        <v>0.03754045307443366</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="E50">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="F50">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>218</v>
+        <v>2974</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K50">
-        <v>0.5151515151515151</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3261,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3269,13 +3263,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.05108225108225108</v>
+        <v>0.03630077787381158</v>
       </c>
       <c r="C51">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D51">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E51">
         <v>0.09</v>
@@ -3287,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1096</v>
+        <v>1115</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K51">
-        <v>0.5142857142857142</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3311,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3319,37 +3313,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.03149350649350649</v>
+        <v>0.0241635687732342</v>
       </c>
       <c r="C52">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="F52">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>2983</v>
+        <v>525</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K52">
-        <v>0.4838709677419355</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3361,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3369,37 +3363,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.02644003777148253</v>
+        <v>0.02172886159659896</v>
       </c>
       <c r="C53">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D53">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E53">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="F53">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2062</v>
+        <v>2071</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K53">
-        <v>0.4814814814814815</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3411,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3419,37 +3413,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02570093457943925</v>
+        <v>0.01979045401629802</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F54">
-        <v>0.6699999999999999</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K54">
-        <v>0.4523809523809524</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L54">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3461,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3469,87 +3463,63 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.02053712480252765</v>
+        <v>0.009689922480620155</v>
       </c>
       <c r="C55">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="E55">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="F55">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>620</v>
+        <v>3066</v>
       </c>
       <c r="J55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K55">
+        <v>0.4067796610169492</v>
+      </c>
+      <c r="L55">
+        <v>24</v>
+      </c>
+      <c r="M55">
+        <v>24</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K55">
-        <v>0.4520547945205479</v>
-      </c>
-      <c r="L55">
-        <v>33</v>
-      </c>
-      <c r="M55">
-        <v>33</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.01159047005795235</v>
-      </c>
-      <c r="C56">
-        <v>36</v>
-      </c>
-      <c r="D56">
-        <v>131</v>
-      </c>
-      <c r="E56">
-        <v>0.73</v>
-      </c>
-      <c r="F56">
-        <v>0.27</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>3070</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="K56">
-        <v>0.4516129032258064</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3561,21 +3531,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K57">
-        <v>0.4210526315789473</v>
+        <v>0.390625</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3587,47 +3557,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K58">
-        <v>0.4137931034482759</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N58">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K59">
-        <v>0.390625</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3639,21 +3609,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K60">
-        <v>0.360655737704918</v>
+        <v>0.325</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3665,21 +3635,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K61">
-        <v>0.3461538461538461</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L61">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M61">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3691,41 +3661,41 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K62">
-        <v>0.3181818181818182</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K63">
-        <v>0.2765957446808511</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L63">
         <v>13</v>
@@ -3743,99 +3713,99 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K64">
-        <v>0.2222222222222222</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="L64">
         <v>16</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K65">
-        <v>0.205607476635514</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N65">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K66">
-        <v>0.2</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="L66">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>56</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K67">
-        <v>0.1935483870967742</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3847,73 +3817,73 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K68">
-        <v>0.1578947368421053</v>
+        <v>0.1205673758865248</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N68">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="O68">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K69">
-        <v>0.1243243243243243</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L69">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>162</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K70">
-        <v>0.1226993865030675</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3925,47 +3895,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>143</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K71">
-        <v>0.1188811188811189</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M71">
         <v>17</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K72">
-        <v>0.1150442477876106</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="L72">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3977,15 +3947,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>100</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K73">
-        <v>0.1071428571428571</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L73">
         <v>33</v>
@@ -4003,345 +3973,293 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>275</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K74">
-        <v>0.0935672514619883</v>
+        <v>0.06968641114982578</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N74">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O74">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>155</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K75">
-        <v>0.08433734939759036</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="L75">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M75">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N75">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="O75">
-        <v>0.03000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>380</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K76">
-        <v>0.07958477508650519</v>
+        <v>0.05491329479768786</v>
       </c>
       <c r="L76">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M76">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>266</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K77">
-        <v>0.06876790830945559</v>
+        <v>0.03605015673981191</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>325</v>
+        <v>615</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K78">
-        <v>0.04918032786885246</v>
+        <v>0.03373493975903614</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="O78">
-        <v>0.06000000000000005</v>
+        <v>0.18</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>290</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="K79">
-        <v>0.03398058252427184</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="L79">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="M79">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="N79">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="O79">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>398</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="K80">
-        <v>0.03001579778830964</v>
+        <v>0.02669632925472748</v>
       </c>
       <c r="L80">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="M80">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="N80">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="O80">
-        <v>0.27</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>3070</v>
+        <v>875</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K81">
-        <v>0.03</v>
+        <v>0.0198744769874477</v>
       </c>
       <c r="L81">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M81">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N81">
-        <v>0.96</v>
+        <v>0.61</v>
       </c>
       <c r="O81">
-        <v>0.04000000000000004</v>
+        <v>0.39</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>873</v>
+        <v>937</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K82">
-        <v>0.02668759811616955</v>
+        <v>0.0167973124300112</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M82">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N82">
-        <v>0.57</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O82">
-        <v>0.43</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>620</v>
+        <v>878</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="K83">
-        <v>0.01795735129068463</v>
+        <v>0.01239866475917978</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M83">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="N83">
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
       <c r="O83">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>875</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="K84">
-        <v>0.01565762004175365</v>
+        <v>0.005683717820127047</v>
       </c>
       <c r="L84">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M84">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="N84">
-        <v>0.6</v>
+        <v>0.13</v>
       </c>
       <c r="O84">
-        <v>0.4</v>
+        <v>0.87</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K85">
-        <v>0.01197891710589363</v>
-      </c>
-      <c r="L85">
-        <v>25</v>
-      </c>
-      <c r="M85">
-        <v>81</v>
-      </c>
-      <c r="N85">
-        <v>0.31</v>
-      </c>
-      <c r="O85">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K86">
-        <v>0.008970099667774087</v>
-      </c>
-      <c r="L86">
-        <v>27</v>
-      </c>
-      <c r="M86">
-        <v>124</v>
-      </c>
-      <c r="N86">
-        <v>0.22</v>
-      </c>
-      <c r="O86">
-        <v>0.78</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>2983</v>
+        <v>2974</v>
       </c>
     </row>
   </sheetData>
